--- a/7rmartSupermarket/src/main/resources/7rmartExcel.xlsx
+++ b/7rmartSupermarket/src/main/resources/7rmartExcel.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinta\eclipse-workspace\7rmartSupermarket\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinta\git\7rmart_project\7rmartSupermarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F240F24A-3967-4364-8A13-59A205065D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC30708-4D71-426B-8761-023B1544F218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="News" sheetId="2" r:id="rId2"/>
-    <sheet name="Footertext" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginTest1" sheetId="4" r:id="rId3"/>
+    <sheet name="Footertext" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -52,6 +53,12 @@
   </si>
   <si>
     <t>newsinfo</t>
+  </si>
+  <si>
+    <t>admin23</t>
+  </si>
+  <si>
+    <t>ssdf</t>
   </si>
 </sst>
 </file>
@@ -356,7 +363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6674FC7-02FE-4DF8-8C08-49768646695C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -379,6 +386,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F054E823-1BDC-40DA-859A-854E3107AC2D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1597B10F-E467-440E-B497-5C9E8328D0D2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
